--- a/ARTIQ_ALTIUM/EEMs/Urukul/Project Outputs for Urukul/BOM/Bill of Materials-Urukul(AD9910).xlsx
+++ b/ARTIQ_ALTIUM/EEMs/Urukul/Project Outputs for Urukul/BOM/Bill of Materials-Urukul(AD9910).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="429">
   <si>
     <t>Comment</t>
   </si>
@@ -891,36 +891,45 @@
     <t>OSC_100MHZ_CRYSTEK_CCHD-950-25-100.000</t>
   </si>
   <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Resistor - 1%</t>
+  </si>
+  <si>
+    <t>R1, R33, R66, R67, R83, R85, R86, R108, R111, R120, R121, R122, R149</t>
+  </si>
+  <si>
+    <t>RESC1005X40N</t>
+  </si>
+  <si>
+    <t>R0402_10K_1%_0.0625W_100PPM</t>
+  </si>
+  <si>
+    <t>0.4mm</t>
+  </si>
+  <si>
+    <t>YAGEO PHYCOMP</t>
+  </si>
+  <si>
+    <t>232270671003L</t>
+  </si>
+  <si>
+    <t>General Purpose Thick Film Chip Resistor</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1A, R1B, R14A, R14B</t>
-  </si>
-  <si>
-    <t>RESC1005X40N</t>
-  </si>
-  <si>
-    <t>R0402_NO-VALUE</t>
-  </si>
-  <si>
-    <t>Reserved Footprint For a 0402 (1005) Chip Resistor</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>R2A, R2B, R2C, R2D, R6, R45, R46, R56A, R56B, R56C, R56D, R57A, R57B, R57C, R57D, R58A, R58B, R58C, R58D, R59A, R59B, R59C, R59D, R64, R65, R73, R74, R75, R78A, R78B, R78C, R78D, R81, R88A, R88B, R88C, R88D, R100A, R100B, R100C, R100D, R123, R124, R125, R126, R127, R128, R138A, R138B, R138C, R138D, R148</t>
   </si>
   <si>
     <t>R0402_0R_JUMPER</t>
   </si>
   <si>
-    <t>0.4mm</t>
-  </si>
-  <si>
-    <t>YAGEO PHYCOMP</t>
-  </si>
-  <si>
     <t>232270591001L</t>
   </si>
   <si>
@@ -930,9 +939,6 @@
     <t>1k2</t>
   </si>
   <si>
-    <t>Resistor - 1%</t>
-  </si>
-  <si>
     <t>R5, R53, R115, R116, R130, R143</t>
   </si>
   <si>
@@ -948,9 +954,6 @@
     <t>NRC06F1201TRF</t>
   </si>
   <si>
-    <t>General Purpose Thick Film Chip Resistor</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -1014,18 +1017,6 @@
     <t>232270671002L</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R33, R66, R67, R83, R85, R86, R108, R111, R120, R121, R122, R149</t>
-  </si>
-  <si>
-    <t>R0402_10K_1%_0.0625W_100PPM</t>
-  </si>
-  <si>
-    <t>232270671003L</t>
-  </si>
-  <si>
     <t>49R9</t>
   </si>
   <si>
@@ -1260,7 +1251,7 @@
     <t>Test Point</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18</t>
+    <t>TP0, TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18</t>
   </si>
   <si>
     <t>TPS127</t>
@@ -1666,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3577,75 +3568,75 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="L51" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L52" s="3">
         <v>52</v>
@@ -3653,37 +3644,37 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I53" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="L53" s="3">
         <v>6</v>
@@ -3691,37 +3682,37 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="K54" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L54" s="3">
         <v>31</v>
@@ -3729,37 +3720,37 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="L55" s="3">
         <v>4</v>
@@ -3767,37 +3758,37 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="L56" s="3">
         <v>2</v>
@@ -3805,37 +3796,37 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="L57" s="3">
         <v>13</v>
@@ -3843,37 +3834,37 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="L58" s="3">
         <v>3</v>
@@ -3881,151 +3872,151 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="L59" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="L60" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="L61" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L62" s="3">
         <v>3</v>
@@ -4033,54 +4024,54 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="L63" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>16</v>
@@ -4092,54 +4083,54 @@
         <v>18</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>354</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>353</v>
       </c>
       <c r="L64" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="L65" s="3">
         <v>6</v>
@@ -4147,113 +4138,113 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L66" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J67" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="L67" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I68" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="L68" s="3">
         <v>1</v>
@@ -4261,37 +4252,37 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I69" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="L69" s="3">
         <v>1</v>
@@ -4299,37 +4290,37 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I70" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="L70" s="3">
         <v>1</v>
@@ -4337,37 +4328,37 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I71" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="L71" s="3">
         <v>1</v>
@@ -4375,137 +4366,137 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>387</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>307</v>
+        <v>63</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>389</v>
+        <v>63</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L72" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>310</v>
+        <v>58</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>392</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J73" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="L73" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>58</v>
+        <v>396</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>400</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="G75" s="2" t="s">
         <v>63</v>
       </c>
@@ -4516,10 +4507,10 @@
         <v>63</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L75" s="3">
         <v>1</v>
@@ -4527,22 +4518,22 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>410</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>406</v>
+        <v>63</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>63</v>
@@ -4554,33 +4545,33 @@
         <v>63</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L76" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>63</v>
+        <v>418</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>63</v>
@@ -4592,33 +4583,33 @@
         <v>63</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L77" s="3">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>425</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>63</v>
@@ -4630,50 +4621,12 @@
         <v>63</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L78" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="L79" s="3">
         <v>10</v>
       </c>
     </row>
